--- a/pcb/JLCSMT_CPL1.xlsx
+++ b/pcb/JLCSMT_CPL1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="148">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5</t>
   </si>
   <si>
@@ -262,18 +265,195 @@
     <t xml:space="preserve">L2</t>
   </si>
   <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">R3</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
     <t xml:space="preserve">R8</t>
   </si>
   <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW108</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -284,24 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
   </si>
 </sst>
 </file>
@@ -398,12 +560,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,35 +762,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -636,7 +802,7 @@
         <v>239</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-18.5</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -650,10 +816,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>237.25</v>
+        <v>240.5</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>-21.75</v>
+        <v>-24.75</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>6</v>
@@ -752,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>234.5</v>
+        <v>234.25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-36</v>
@@ -854,10 +1020,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>230.4</v>
+        <v>232.25</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-38.4575</v>
+        <v>-38</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>6</v>
@@ -871,10 +1037,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>236.4</v>
+        <v>237.75</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>-38.555</v>
+        <v>-38.25</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>6</v>
@@ -888,10 +1054,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>242.5</v>
+        <v>242.75</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>-17</v>
+        <v>-15.75</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>6</v>
@@ -905,10 +1071,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>234.25</v>
+        <v>233.75</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-20.25</v>
+        <v>-18.75</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>6</v>
@@ -922,10 +1088,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>29.35</v>
+        <v>234.25</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-29.5</v>
+        <v>-21.75</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>6</v>
@@ -939,10 +1105,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>29.25</v>
+        <v>29.35</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>6</v>
@@ -959,7 +1125,7 @@
         <v>29.25</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>6</v>
@@ -976,7 +1142,7 @@
         <v>29.25</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-86.75</v>
+        <v>-67.5</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>6</v>
@@ -990,10 +1156,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>52.75</v>
+        <v>29.25</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-29.75</v>
+        <v>-86.75</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>6</v>
@@ -1010,7 +1176,7 @@
         <v>52.75</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-48.75</v>
+        <v>-29.75</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>6</v>
@@ -1024,10 +1190,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>53</v>
+        <v>52.75</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.75</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>6</v>
@@ -1044,7 +1210,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>6</v>
@@ -1058,10 +1224,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>-29.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>6</v>
@@ -1078,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>6</v>
@@ -1095,7 +1261,7 @@
         <v>72</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>-67.75</v>
+        <v>-48.5</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>6</v>
@@ -1112,7 +1278,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.75</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>6</v>
@@ -1129,7 +1295,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>-105.75</v>
+        <v>-86.5</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>6</v>
@@ -1143,10 +1309,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>90.85</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>-29.75</v>
+        <v>-105.75</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>6</v>
@@ -1160,10 +1326,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>90.75</v>
+        <v>90.85</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.75</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>6</v>
@@ -1177,10 +1343,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>90.85</v>
+        <v>90.75</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>6</v>
@@ -1194,10 +1360,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>91.1</v>
+        <v>90.85</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>6</v>
@@ -1211,10 +1377,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>90.85</v>
+        <v>91.1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>-105.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>6</v>
@@ -1228,10 +1394,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>110</v>
+        <v>90.85</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>-29.5</v>
+        <v>-105.5</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>6</v>
@@ -1248,7 +1414,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>6</v>
@@ -1262,10 +1428,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>6</v>
@@ -1279,10 +1445,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>6</v>
@@ -1299,7 +1465,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>-105.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>6</v>
@@ -1313,10 +1479,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>-29.5</v>
+        <v>-105.5</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>6</v>
@@ -1333,7 +1499,7 @@
         <v>129</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>6</v>
@@ -1350,7 +1516,7 @@
         <v>129</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>-67.75</v>
+        <v>-48.5</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>6</v>
@@ -1367,7 +1533,7 @@
         <v>129</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.75</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>6</v>
@@ -1381,10 +1547,10 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>-30</v>
+        <v>-86.5</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>6</v>
@@ -1401,7 +1567,7 @@
         <v>148</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>-48.75</v>
+        <v>-30</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>6</v>
@@ -1418,7 +1584,7 @@
         <v>148</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.75</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>6</v>
@@ -1432,10 +1598,10 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>147.75</v>
+        <v>148</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>6</v>
@@ -1449,10 +1615,10 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>148</v>
+        <v>147.75</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>-105.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>6</v>
@@ -1466,10 +1632,10 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>-29.5</v>
+        <v>-105.5</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>6</v>
@@ -1486,7 +1652,7 @@
         <v>167</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>6</v>
@@ -1503,7 +1669,7 @@
         <v>167</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>6</v>
@@ -1520,7 +1686,7 @@
         <v>167</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>6</v>
@@ -1534,10 +1700,10 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>-29.75</v>
+        <v>-86.5</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>6</v>
@@ -1554,7 +1720,7 @@
         <v>186</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.75</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>6</v>
@@ -1571,7 +1737,7 @@
         <v>186</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>6</v>
@@ -1585,10 +1751,10 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>185.75</v>
+        <v>186</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>6</v>
@@ -1602,10 +1768,10 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>186</v>
+        <v>185.75</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>-105.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>6</v>
@@ -1619,10 +1785,10 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>-29.5</v>
+        <v>-105.5</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>6</v>
@@ -1636,10 +1802,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>204.85</v>
+        <v>205</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>6</v>
@@ -1653,10 +1819,10 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>205</v>
+        <v>204.85</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>6</v>
@@ -1673,7 +1839,7 @@
         <v>205</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>6</v>
@@ -1690,7 +1856,7 @@
         <v>205</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>-105.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>6</v>
@@ -1704,10 +1870,10 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>223.85</v>
+        <v>205</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>-29.5</v>
+        <v>-105.5</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>6</v>
@@ -1721,10 +1887,10 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>224</v>
+        <v>223.85</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.5</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>6</v>
@@ -1738,10 +1904,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>223.85</v>
+        <v>224</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>6</v>
@@ -1755,10 +1921,10 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>223.75</v>
+        <v>223.85</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>6</v>
@@ -1772,10 +1938,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>248.25</v>
+        <v>223.75</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>-29.75</v>
+        <v>-86.5</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>6</v>
@@ -1789,16 +1955,16 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>247.5</v>
+        <v>251.5</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>-48.5</v>
+        <v>-29.75</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,10 +1972,10 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>247.75</v>
+        <v>247.5</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>-67.5</v>
+        <v>-48.5</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>6</v>
@@ -1823,10 +1989,10 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>247.6</v>
+        <v>247.75</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>-86.5</v>
+        <v>-67.5</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>6</v>
@@ -1840,16 +2006,16 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>236</v>
+        <v>247.6</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>-12.5</v>
+        <v>-86.5</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,16 +2023,16 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>228.75</v>
+        <v>236</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>-34.25</v>
+        <v>-12.5</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,16 +2040,16 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>231.9</v>
+        <v>228.75</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>-36.055</v>
+        <v>-34.25</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,10 +2057,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>233.25</v>
+        <v>231.9</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>-18.5</v>
+        <v>-36.055</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>6</v>
@@ -1908,10 +2074,10 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>227</v>
+        <v>242.25</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>-31.75</v>
+        <v>-18.5</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>6</v>
@@ -1925,16 +2091,16 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>234.5</v>
+        <v>233.25</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>-23.25</v>
+        <v>-20.25</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,16 +2108,16 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>235.5</v>
+        <v>227</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>-23.25</v>
+        <v>-31.75</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,16 +2125,16 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>234</v>
+        <v>246.25</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>-31.805</v>
+        <v>-29.5</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,16 +2142,16 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>239.5</v>
+        <v>228.25</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>-21.25</v>
+        <v>-15</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,16 +2159,16 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>242.65</v>
+        <v>229.75</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>-31.805</v>
+        <v>-15</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,10 +2176,10 @@
         <v>87</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>233.4</v>
+        <v>234.75</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>-38.305</v>
+        <v>-24.25</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>6</v>
@@ -2027,95 +2193,1019 @@
         <v>88</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>234.5</v>
+        <v>235.75</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>-18.5</v>
+        <v>-24.25</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="0" t="n">
         <v>90</v>
-      </c>
-      <c r="B85" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>239.25</v>
+        <v>29.25</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>-30.5</v>
+        <v>-24.5</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>225.75</v>
+        <v>29.25</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>-13.75</v>
+        <v>-43.5</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="0" t="n">
-        <v>227</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>-13.75</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="n">
-        <v>221.25</v>
+        <v>29.25</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>-81.5</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>90</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>-62.54</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>-100.5</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>247.75</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>247.75</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>-43.5</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>247.75</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>247.75</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>-81.5</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>-31.805</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>-25.6125</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>242.65</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>-31.805</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>-38.6</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>-90</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/JLCSMT_CPL1.xlsx
+++ b/pcb/JLCSMT_CPL1.xlsx
@@ -764,7 +764,7 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E143"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +795,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -804,7 +804,7 @@
       <c r="C2" s="0" t="n">
         <v>-19.5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -812,7 +812,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -821,7 +821,7 @@
       <c r="C3" s="0" t="n">
         <v>-24.75</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -838,7 +838,7 @@
       <c r="C4" s="0" t="n">
         <v>-31.5</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -855,7 +855,7 @@
       <c r="C5" s="0" t="n">
         <v>-33.75</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -872,7 +872,7 @@
       <c r="C6" s="0" t="n">
         <v>-30.805</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -889,7 +889,7 @@
       <c r="C7" s="0" t="n">
         <v>-29.805</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -897,7 +897,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -906,7 +906,7 @@
       <c r="C8" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="0" t="n">
@@ -914,7 +914,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -923,7 +923,7 @@
       <c r="C9" s="0" t="n">
         <v>-36</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="0" t="n">
@@ -931,7 +931,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -940,7 +940,7 @@
       <c r="C10" s="0" t="n">
         <v>-34.25</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -957,7 +957,7 @@
       <c r="C11" s="0" t="n">
         <v>-34.75</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -965,7 +965,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -974,7 +974,7 @@
       <c r="C12" s="0" t="n">
         <v>-33.75</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -982,7 +982,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -991,7 +991,7 @@
       <c r="C13" s="0" t="n">
         <v>-32.75</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -1008,7 +1008,7 @@
       <c r="C14" s="0" t="n">
         <v>-31.5</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1025,7 +1025,7 @@
       <c r="C15" s="0" t="n">
         <v>-38</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="0" t="n">
@@ -1033,7 +1033,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -1042,7 +1042,7 @@
       <c r="C16" s="0" t="n">
         <v>-38.25</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="0" t="n">
@@ -1050,16 +1050,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>242.75</v>
+        <v>242.5</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>-15.75</v>
-      </c>
-      <c r="D17" s="0" t="s">
+        <v>-15</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1076,7 +1076,7 @@
       <c r="C18" s="0" t="n">
         <v>-18.75</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1093,7 +1093,7 @@
       <c r="C19" s="0" t="n">
         <v>-21.75</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1110,7 +1110,7 @@
       <c r="C20" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1127,7 +1127,7 @@
       <c r="C21" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1144,7 +1144,7 @@
       <c r="C22" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1161,7 +1161,7 @@
       <c r="C23" s="0" t="n">
         <v>-86.75</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1178,7 +1178,7 @@
       <c r="C24" s="0" t="n">
         <v>-29.75</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1195,7 +1195,7 @@
       <c r="C25" s="0" t="n">
         <v>-48.75</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="0" t="n">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1212,7 +1212,7 @@
       <c r="C26" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1229,7 +1229,7 @@
       <c r="C27" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="0" t="n">
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -1246,7 +1246,7 @@
       <c r="C28" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -1263,7 +1263,7 @@
       <c r="C29" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -1271,7 +1271,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -1280,7 +1280,7 @@
       <c r="C30" s="0" t="n">
         <v>-67.75</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="0" t="n">
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1297,7 +1297,7 @@
       <c r="C31" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="0" t="n">
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -1314,7 +1314,7 @@
       <c r="C32" s="0" t="n">
         <v>-105.75</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="0" t="n">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -1331,7 +1331,7 @@
       <c r="C33" s="0" t="n">
         <v>-29.75</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -1348,7 +1348,7 @@
       <c r="C34" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="0" t="n">
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -1365,7 +1365,7 @@
       <c r="C35" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -1382,7 +1382,7 @@
       <c r="C36" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -1399,7 +1399,7 @@
       <c r="C37" s="0" t="n">
         <v>-105.5</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="0" t="n">
@@ -1407,7 +1407,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -1416,7 +1416,7 @@
       <c r="C38" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="0" t="n">
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -1433,7 +1433,7 @@
       <c r="C39" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="0" t="n">
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -1450,7 +1450,7 @@
       <c r="C40" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="0" t="n">
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -1467,7 +1467,7 @@
       <c r="C41" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="0" t="n">
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -1484,7 +1484,7 @@
       <c r="C42" s="0" t="n">
         <v>-105.5</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="0" t="n">
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -1501,7 +1501,7 @@
       <c r="C43" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="0" t="n">
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -1518,7 +1518,7 @@
       <c r="C44" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="0" t="n">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -1535,7 +1535,7 @@
       <c r="C45" s="0" t="n">
         <v>-67.75</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="0" t="n">
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -1552,7 +1552,7 @@
       <c r="C46" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="0" t="n">
@@ -1560,7 +1560,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -1569,7 +1569,7 @@
       <c r="C47" s="0" t="n">
         <v>-30</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="0" t="n">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -1586,7 +1586,7 @@
       <c r="C48" s="0" t="n">
         <v>-48.75</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="0" t="n">
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -1603,7 +1603,7 @@
       <c r="C49" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="0" t="n">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -1620,7 +1620,7 @@
       <c r="C50" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="0" t="n">
@@ -1628,7 +1628,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -1637,7 +1637,7 @@
       <c r="C51" s="0" t="n">
         <v>-105.5</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="0" t="n">
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -1654,7 +1654,7 @@
       <c r="C52" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="0" t="n">
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -1671,7 +1671,7 @@
       <c r="C53" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="0" t="n">
@@ -1679,7 +1679,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -1688,7 +1688,7 @@
       <c r="C54" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="0" t="n">
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -1705,7 +1705,7 @@
       <c r="C55" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="0" t="n">
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -1722,7 +1722,7 @@
       <c r="C56" s="0" t="n">
         <v>-29.75</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="0" t="n">
@@ -1730,7 +1730,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -1739,7 +1739,7 @@
       <c r="C57" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="0" t="n">
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -1756,7 +1756,7 @@
       <c r="C58" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="0" t="n">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -1773,7 +1773,7 @@
       <c r="C59" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="0" t="n">
@@ -1781,7 +1781,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -1790,7 +1790,7 @@
       <c r="C60" s="0" t="n">
         <v>-105.5</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="0" t="n">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -1807,7 +1807,7 @@
       <c r="C61" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="0" t="n">
@@ -1815,7 +1815,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -1824,7 +1824,7 @@
       <c r="C62" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="0" t="n">
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -1841,7 +1841,7 @@
       <c r="C63" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="0" t="n">
@@ -1849,7 +1849,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -1858,7 +1858,7 @@
       <c r="C64" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="0" t="n">
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -1875,7 +1875,7 @@
       <c r="C65" s="0" t="n">
         <v>-105.5</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="0" t="n">
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -1892,7 +1892,7 @@
       <c r="C66" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="0" t="n">
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -1909,7 +1909,7 @@
       <c r="C67" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="0" t="n">
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -1926,7 +1926,7 @@
       <c r="C68" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="0" t="n">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -1943,7 +1943,7 @@
       <c r="C69" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="0" t="n">
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -1960,7 +1960,7 @@
       <c r="C70" s="0" t="n">
         <v>-29.75</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="0" t="n">
@@ -1968,7 +1968,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -1977,7 +1977,7 @@
       <c r="C71" s="0" t="n">
         <v>-48.5</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="0" t="n">
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -1994,7 +1994,7 @@
       <c r="C72" s="0" t="n">
         <v>-67.5</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="0" t="n">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -2011,7 +2011,7 @@
       <c r="C73" s="0" t="n">
         <v>-86.5</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="0" t="n">
@@ -2019,7 +2019,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -2028,7 +2028,7 @@
       <c r="C74" s="0" t="n">
         <v>-12.5</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="0" t="n">
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -2045,7 +2045,7 @@
       <c r="C75" s="0" t="n">
         <v>-34.25</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="0" t="n">
@@ -2053,7 +2053,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -2062,7 +2062,7 @@
       <c r="C76" s="0" t="n">
         <v>-36.055</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="0" t="n">
@@ -2070,24 +2070,24 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>242.25</v>
+        <v>244</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>-18.5</v>
-      </c>
-      <c r="D77" s="0" t="s">
+        <v>-16</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -2096,7 +2096,7 @@
       <c r="C78" s="0" t="n">
         <v>-20.25</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="0" t="n">
@@ -2104,7 +2104,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -2113,7 +2113,7 @@
       <c r="C79" s="0" t="n">
         <v>-31.75</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="0" t="n">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -2130,7 +2130,7 @@
       <c r="C80" s="0" t="n">
         <v>-29.5</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="0" t="n">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -2147,7 +2147,7 @@
       <c r="C81" s="0" t="n">
         <v>-15</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="0" t="n">
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -2164,7 +2164,7 @@
       <c r="C82" s="0" t="n">
         <v>-15</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="0" t="n">
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -2181,7 +2181,7 @@
       <c r="C83" s="0" t="n">
         <v>-24.25</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="0" t="n">
@@ -2189,7 +2189,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -2198,7 +2198,7 @@
       <c r="C84" s="0" t="n">
         <v>-24.25</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="0" t="n">
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -2215,7 +2215,7 @@
       <c r="C85" s="0" t="n">
         <v>-14.1</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="0" t="n">
@@ -2223,7 +2223,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -2232,7 +2232,7 @@
       <c r="C86" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="0" t="n">
@@ -2240,7 +2240,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -2249,7 +2249,7 @@
       <c r="C87" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="0" t="n">
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -2266,7 +2266,7 @@
       <c r="C88" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="0" t="n">
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -2283,7 +2283,7 @@
       <c r="C89" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="0" t="n">
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -2300,7 +2300,7 @@
       <c r="C90" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="0" t="n">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -2317,7 +2317,7 @@
       <c r="C91" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="0" t="n">
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -2334,7 +2334,7 @@
       <c r="C92" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="0" t="n">
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -2351,7 +2351,7 @@
       <c r="C93" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E93" s="0" t="n">
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -2368,7 +2368,7 @@
       <c r="C94" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="0" t="n">
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -2385,7 +2385,7 @@
       <c r="C95" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="0" t="n">
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -2402,7 +2402,7 @@
       <c r="C96" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="0" t="n">
@@ -2410,7 +2410,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -2419,7 +2419,7 @@
       <c r="C97" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="0" t="n">
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -2436,7 +2436,7 @@
       <c r="C98" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="0" t="n">
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -2453,7 +2453,7 @@
       <c r="C99" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="0" t="n">
@@ -2461,7 +2461,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -2470,7 +2470,7 @@
       <c r="C100" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="0" t="n">
@@ -2478,7 +2478,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -2487,7 +2487,7 @@
       <c r="C101" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="0" t="n">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -2504,7 +2504,7 @@
       <c r="C102" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="0" t="n">
@@ -2512,7 +2512,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -2521,7 +2521,7 @@
       <c r="C103" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="0" t="n">
@@ -2529,7 +2529,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -2538,7 +2538,7 @@
       <c r="C104" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="0" t="n">
@@ -2546,7 +2546,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -2555,7 +2555,7 @@
       <c r="C105" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="0" t="n">
@@ -2563,7 +2563,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -2572,7 +2572,7 @@
       <c r="C106" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="0" t="n">
@@ -2580,7 +2580,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -2589,7 +2589,7 @@
       <c r="C107" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="0" t="n">
@@ -2597,7 +2597,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B108" s="0" t="n">
@@ -2606,7 +2606,7 @@
       <c r="C108" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="0" t="n">
@@ -2614,7 +2614,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B109" s="0" t="n">
@@ -2623,7 +2623,7 @@
       <c r="C109" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="0" t="n">
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B110" s="0" t="n">
@@ -2640,7 +2640,7 @@
       <c r="C110" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="0" t="n">
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B111" s="0" t="n">
@@ -2657,7 +2657,7 @@
       <c r="C111" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E111" s="0" t="n">
@@ -2665,7 +2665,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B112" s="0" t="n">
@@ -2674,7 +2674,7 @@
       <c r="C112" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="0" t="n">
@@ -2682,7 +2682,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B113" s="0" t="n">
@@ -2691,7 +2691,7 @@
       <c r="C113" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E113" s="0" t="n">
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B114" s="0" t="n">
@@ -2708,7 +2708,7 @@
       <c r="C114" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E114" s="0" t="n">
@@ -2716,7 +2716,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B115" s="0" t="n">
@@ -2725,7 +2725,7 @@
       <c r="C115" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="0" t="n">
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B116" s="0" t="n">
@@ -2742,7 +2742,7 @@
       <c r="C116" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="0" t="n">
@@ -2750,7 +2750,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B117" s="0" t="n">
@@ -2759,7 +2759,7 @@
       <c r="C117" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E117" s="0" t="n">
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B118" s="0" t="n">
@@ -2776,7 +2776,7 @@
       <c r="C118" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="0" t="n">
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B119" s="0" t="n">
@@ -2793,7 +2793,7 @@
       <c r="C119" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="0" t="n">
@@ -2801,7 +2801,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B120" s="0" t="n">
@@ -2810,7 +2810,7 @@
       <c r="C120" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="0" t="n">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B121" s="0" t="n">
@@ -2827,7 +2827,7 @@
       <c r="C121" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="0" t="n">
@@ -2835,7 +2835,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B122" s="0" t="n">
@@ -2844,7 +2844,7 @@
       <c r="C122" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="0" t="n">
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B123" s="0" t="n">
@@ -2861,7 +2861,7 @@
       <c r="C123" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E123" s="0" t="n">
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B124" s="0" t="n">
@@ -2878,7 +2878,7 @@
       <c r="C124" s="0" t="n">
         <v>-62.54</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E124" s="0" t="n">
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B125" s="0" t="n">
@@ -2895,7 +2895,7 @@
       <c r="C125" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E125" s="0" t="n">
@@ -2903,7 +2903,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B126" s="0" t="n">
@@ -2912,7 +2912,7 @@
       <c r="C126" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="0" t="n">
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B127" s="0" t="n">
@@ -2929,7 +2929,7 @@
       <c r="C127" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="0" t="n">
@@ -2937,7 +2937,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B128" s="0" t="n">
@@ -2946,7 +2946,7 @@
       <c r="C128" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="0" t="n">
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B129" s="0" t="n">
@@ -2963,7 +2963,7 @@
       <c r="C129" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="0" t="n">
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B130" s="0" t="n">
@@ -2980,7 +2980,7 @@
       <c r="C130" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E130" s="0" t="n">
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B131" s="0" t="n">
@@ -2997,7 +2997,7 @@
       <c r="C131" s="0" t="n">
         <v>-100.5</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E131" s="0" t="n">
@@ -3005,7 +3005,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B132" s="0" t="n">
@@ -3014,7 +3014,7 @@
       <c r="C132" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E132" s="0" t="n">
@@ -3022,7 +3022,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B133" s="0" t="n">
@@ -3031,7 +3031,7 @@
       <c r="C133" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="0" t="n">
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B134" s="0" t="n">
@@ -3048,7 +3048,7 @@
       <c r="C134" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="0" t="n">
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B135" s="0" t="n">
@@ -3065,7 +3065,7 @@
       <c r="C135" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E135" s="0" t="n">
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B136" s="0" t="n">
@@ -3082,7 +3082,7 @@
       <c r="C136" s="0" t="n">
         <v>-24.5</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E136" s="0" t="n">
@@ -3090,7 +3090,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B137" s="0" t="n">
@@ -3099,7 +3099,7 @@
       <c r="C137" s="0" t="n">
         <v>-43.5</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E137" s="0" t="n">
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B138" s="0" t="n">
@@ -3116,7 +3116,7 @@
       <c r="C138" s="0" t="n">
         <v>-62.5</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="0" t="n">
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B139" s="0" t="n">
@@ -3133,7 +3133,7 @@
       <c r="C139" s="0" t="n">
         <v>-81.5</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="0" t="n">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B140" s="0" t="n">
@@ -3150,7 +3150,7 @@
       <c r="C140" s="0" t="n">
         <v>-31.805</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="0" t="n">
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B141" s="0" t="n">
@@ -3167,7 +3167,7 @@
       <c r="C141" s="0" t="n">
         <v>-25.6125</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="0" t="n">
@@ -3175,7 +3175,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B142" s="0" t="n">
@@ -3184,7 +3184,7 @@
       <c r="C142" s="0" t="n">
         <v>-31.805</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E142" s="0" t="n">
@@ -3192,7 +3192,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B143" s="0" t="n">
@@ -3201,7 +3201,7 @@
       <c r="C143" s="0" t="n">
         <v>-38.6</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="0" t="n">
